--- a/www/ig/nos/ValueSet-JDV-J277-NCIT-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J277-NCIT-CISIS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J270-NCIT-CISIS/FHIR/JDV-J277-NCIT-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J277-NCIT-CISIS/FHIR/JDV-J277-NCIT-CISIS</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
